--- a/support.xlsx
+++ b/support.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allanritchie/Google Drive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D02506B-9E5C-4077-A9DB-E586D5ADB8E7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1861605E-368B-B947-9486-94368264A8E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11655" xr2:uid="{F0D587E8-26DF-4AD9-871F-222B252DF91D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17640" windowHeight="19360" xr2:uid="{F0D587E8-26DF-4AD9-871F-222B252DF91D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Feature</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Linux</t>
   </si>
   <si>
-    <t>Blazor (WASM)</t>
-  </si>
-  <si>
     <t>Windows (.NET 4.7+)</t>
   </si>
   <si>
@@ -107,18 +105,12 @@
     <t>Notifications</t>
   </si>
   <si>
-    <t>Sensors (All)</t>
-  </si>
-  <si>
     <t>Settings</t>
   </si>
   <si>
     <t>Speech Recognition</t>
   </si>
   <si>
-    <t>App Info</t>
-  </si>
-  <si>
     <t>Environment</t>
   </si>
   <si>
@@ -135,6 +127,45 @@
   </si>
   <si>
     <t>Issues</t>
+  </si>
+  <si>
+    <t>watchOS</t>
+  </si>
+  <si>
+    <t>Tizen</t>
+  </si>
+  <si>
+    <t>WASM</t>
+  </si>
+  <si>
+    <t>Sensors - Gyroscope</t>
+  </si>
+  <si>
+    <t>Sensors - Proximity</t>
+  </si>
+  <si>
+    <t>Sensors - Compass</t>
+  </si>
+  <si>
+    <t>Sensors  - Accelerometer</t>
+  </si>
+  <si>
+    <t>Sensors - Ambient Light</t>
+  </si>
+  <si>
+    <t>Sensors - Barometer</t>
+  </si>
+  <si>
+    <t>Sensors - Heart Rate</t>
+  </si>
+  <si>
+    <t>Sensors - Magnetometer</t>
+  </si>
+  <si>
+    <t>Sensors - Motion Sensor</t>
+  </si>
+  <si>
+    <t>Sensors - Pedometer</t>
   </si>
 </sst>
 </file>
@@ -206,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -244,6 +275,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -252,12 +309,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -299,20 +361,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCEE3607-9306-4160-A29E-1A1D2686E6FB}" name="Table1" displayName="Table1" ref="A1:K17" totalsRowShown="0">
-  <autoFilter ref="A1:K17" xr:uid="{6BD1A22C-FAE4-41E5-B129-F11D1B6B08B3}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCEE3607-9306-4160-A29E-1A1D2686E6FB}" name="Table1" displayName="Table1" ref="A1:M25" totalsRowShown="0">
+  <autoFilter ref="A1:M25" xr:uid="{6BD1A22C-FAE4-41E5-B129-F11D1B6B08B3}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{828C6EF6-8816-4CDA-A8E4-11360601BD51}" name="Feature"/>
     <tableColumn id="2" xr3:uid="{2AF89588-F60B-4E2F-8B9F-E37D184CFB3A}" name=".NET Standard (2.x)" dataDxfId="0" dataCellStyle="Note"/>
     <tableColumn id="3" xr3:uid="{91C5F3AB-7B10-45D5-8EE6-217970175E16}" name="iOS" dataCellStyle="Good"/>
     <tableColumn id="4" xr3:uid="{91392C44-55D7-44C6-8F37-FD93528B574D}" name="Android" dataCellStyle="Good"/>
     <tableColumn id="5" xr3:uid="{8E1F7CD9-D50A-4302-AF9E-EE41EC2341A0}" name="UWP" dataCellStyle="Good"/>
     <tableColumn id="6" xr3:uid="{B0464D05-2F3B-4F22-8E42-5EB7A691DC6D}" name="macOS"/>
+    <tableColumn id="12" xr3:uid="{07CC4238-165C-5C45-9AA7-0D4D6A2FBA1D}" name="watchOS" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{9A28B605-701B-4375-AF4B-E6EF1E20FD30}" name="tvOS"/>
+    <tableColumn id="13" xr3:uid="{657B1980-C98A-214B-8858-9C056437901A}" name="Tizen" dataCellStyle="Normal"/>
     <tableColumn id="8" xr3:uid="{82A2AAE9-0206-44F3-8B47-5C6A4A235344}" name="Windows (.NET 4.7+)"/>
     <tableColumn id="9" xr3:uid="{17E27489-16E7-458C-9677-9B84BB9BBCBE}" name="Meadow (IOT)"/>
     <tableColumn id="10" xr3:uid="{E2C15971-E48A-418F-BD81-37FE785C387C}" name="Linux" dataCellStyle="Input"/>
-    <tableColumn id="11" xr3:uid="{5FCECF45-A97F-466C-86EB-961466171C08}" name="Blazor (WASM)"/>
+    <tableColumn id="11" xr3:uid="{5FCECF45-A97F-466C-86EB-961466171C08}" name="WASM"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -615,23 +679,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA5C8E0-A950-4492-8528-3E39941166FB}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="1" max="2" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,24 +715,30 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -677,129 +747,132 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -808,108 +881,251 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="K14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -917,4 +1133,16 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39502D3C-3ADB-E944-9688-CEEEDEBB866D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>